--- a/public/ImportsExcel/violations.xlsx
+++ b/public/ImportsExcel/violations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK_Systems\mkta-HRMS\public\ImportsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27AC6C-AB02-4834-80D2-21918BD42AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74635C9-1360-41E8-853E-E14C93064C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="148">
   <si>
     <t>offenses against person and officers</t>
   </si>
@@ -461,13 +461,19 @@
   </si>
   <si>
     <t>Provoking or instigating a fight within company premises or in the course of company-sponsored or organized events.</t>
+  </si>
+  <si>
+    <t>Falsying dailt time records.</t>
+  </si>
+  <si>
+    <t>Unauthorized solicitation in any form such as requests for assistance, contributions, and donations either in the form of cash or otherwise.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -831,19 +837,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -851,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -875,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -883,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -923,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="75">
+    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -931,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60">
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -955,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -971,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90">
+    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -979,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -987,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60">
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="75">
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="75">
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105">
+    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="165">
+    <row r="35" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105">
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60">
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45">
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -1227,715 +1233,731 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="60">
-      <c r="A55" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="105">
-      <c r="A58" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="45">
-      <c r="A59" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="3" t="s">
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="45">
-      <c r="A64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="120">
-      <c r="A65" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45">
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="45">
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30">
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="60">
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="60">
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="75">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30">
+    <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="90">
+    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="45">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="75">
+    <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="45">
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="90">
-      <c r="A84" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="75">
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="45">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="60">
+    <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
+    <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="75">
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30">
+    <row r="94" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="60">
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30">
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45">
+    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="45">
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="45">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="45">
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="75">
-      <c r="A101" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="30">
-      <c r="A102" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30">
+    <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45">
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30">
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="60">
+    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30">
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B114" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="30">
-      <c r="A115" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="30">
-      <c r="A116" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30">
+    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="60">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="75">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="60">
+    <row r="121" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30">
+    <row r="123" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="45">
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="45">
-      <c r="A126" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="75">
-      <c r="A127" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="45">
+    <row r="128" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="75">
+    <row r="129" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="60">
+    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="30">
+    <row r="131" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="45">
+    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30">
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="45">
+    <row r="134" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="120">
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="45">
+    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="45">
+    <row r="137" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" t="s">
         <v>7</v>
       </c>
     </row>
